--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_28.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_28.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995153538562604</v>
+        <v>0.9479076169308718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8260682488793883</v>
+        <v>0.7189769500411172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8172530548558834</v>
+        <v>0.7662396346578193</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993267510079421</v>
+        <v>0.9727423007933504</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002017352511833093</v>
+        <v>0.1672315100364122</v>
       </c>
       <c r="G2" t="n">
-        <v>1.163082420625603</v>
+        <v>1.879202429067211</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6536752265038016</v>
+        <v>0.8361472726242218</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002822600212011167</v>
+        <v>0.07992738360736219</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1204754938329772</v>
+        <v>0.9721079678570911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04491494753234265</v>
+        <v>0.4089394943465503</v>
       </c>
       <c r="L2" t="n">
-        <v>1.031017353199331</v>
+        <v>0.9290656911399106</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04562231305750163</v>
+        <v>0.4153798825929886</v>
       </c>
       <c r="N2" t="n">
-        <v>142.4119385298244</v>
+        <v>37.57675227786356</v>
       </c>
       <c r="O2" t="n">
-        <v>283.7471110730408</v>
+        <v>74.54133586608938</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995026520915754</v>
+        <v>0.9478928680617564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8255919176059525</v>
+        <v>0.7189378222559792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8165434470774491</v>
+        <v>0.7663212223880658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994298193823095</v>
+        <v>0.9728779590888142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00207022394643148</v>
+        <v>0.1672788581419926</v>
       </c>
       <c r="G3" t="n">
-        <v>1.166267650044371</v>
+        <v>1.879464076746596</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6562134523818381</v>
+        <v>0.8358554380438585</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002390485468769171</v>
+        <v>0.07952959461795209</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1056562901587313</v>
+        <v>0.9707111269016697</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04549971369614847</v>
+        <v>0.4089973815832965</v>
       </c>
       <c r="L3" t="n">
-        <v>1.031830266139174</v>
+        <v>0.9290456075734556</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04621628870383568</v>
+        <v>0.4154386814958475</v>
       </c>
       <c r="N3" t="n">
-        <v>142.3601969817495</v>
+        <v>37.57618609982664</v>
       </c>
       <c r="O3" t="n">
-        <v>283.6953695249659</v>
+        <v>74.54076968805245</v>
       </c>
     </row>
     <row r="4">
@@ -610,193 +610,193 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994829726845651</v>
+        <v>0.9478768971248707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.825455161965182</v>
+        <v>0.7188975889336103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8160925923323328</v>
+        <v>0.7664031636600313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994128270064738</v>
+        <v>0.9730113071195423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002152140003489554</v>
+        <v>0.167330129436081</v>
       </c>
       <c r="G4" t="n">
-        <v>1.167182135643906</v>
+        <v>1.879733117158534</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6578261336630591</v>
+        <v>0.835562338865266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002461726100692875</v>
+        <v>0.07913857998665523</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1073353100159334</v>
+        <v>0.9693197661587967</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04639116298918959</v>
+        <v>0.409060056026106</v>
       </c>
       <c r="L4" t="n">
-        <v>1.033089748187834</v>
+        <v>0.9290238599147175</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04712177743211984</v>
+        <v>0.4155023429984799</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2825851628302</v>
+        <v>37.57557318987629</v>
       </c>
       <c r="O4" t="n">
-        <v>283.6177577060466</v>
+        <v>74.54015677810212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_5</t>
+          <t>model_1_28_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994669859930184</v>
+        <v>0.9478596825386949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8254104417941608</v>
+        <v>0.7188562256208451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8163223071556247</v>
+        <v>0.7664855889689972</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993819527257641</v>
+        <v>0.9731423035518658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002218685033846805</v>
+        <v>0.167385393201553</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167481179633443</v>
+        <v>1.880009713821456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6570044570597743</v>
+        <v>0.835267508314389</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002591166697418592</v>
+        <v>0.07875446091563119</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1094547131145934</v>
+        <v>0.9679355275090559</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04710291958941404</v>
+        <v>0.4091276001464006</v>
       </c>
       <c r="L5" t="n">
-        <v>1.034112896446821</v>
+        <v>0.9290004187760952</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04784474348730225</v>
+        <v>0.4155709508711497</v>
       </c>
       <c r="N5" t="n">
-        <v>142.221681171378</v>
+        <v>37.57491276318872</v>
       </c>
       <c r="O5" t="n">
-        <v>283.5568537145944</v>
+        <v>74.53949635141454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_4</t>
+          <t>model_1_28_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994538579180962</v>
+        <v>0.947841201405387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8253949556344943</v>
+        <v>0.7188137144250315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8162368888931311</v>
+        <v>0.766568331525901</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993603519280979</v>
+        <v>0.973270968853046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0022733309961885</v>
+        <v>0.1674447229470585</v>
       </c>
       <c r="G6" t="n">
-        <v>1.167584735654439</v>
+        <v>1.880293986383607</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6573099932318789</v>
+        <v>0.8349715429860332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002681728163965819</v>
+        <v>0.07837717738900539</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1098373240313105</v>
+        <v>0.9665876249204535</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04767946094691612</v>
+        <v>0.4092001013526982</v>
       </c>
       <c r="L6" t="n">
-        <v>1.034953093241846</v>
+        <v>0.9289752529775482</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04843036479485508</v>
+        <v>0.415644593898972</v>
       </c>
       <c r="N6" t="n">
-        <v>142.17301824773</v>
+        <v>37.57420398887882</v>
       </c>
       <c r="O6" t="n">
-        <v>283.5081907909463</v>
+        <v>74.53878757710464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_6</t>
+          <t>model_1_28_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994726000723889</v>
+        <v>0.947821443281005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8253929713032356</v>
+        <v>0.7187700709401048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8160865771641868</v>
+        <v>0.7666514358856577</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993965583384</v>
+        <v>0.973397347477043</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002195316278588734</v>
+        <v>0.16750815220065</v>
       </c>
       <c r="G7" t="n">
-        <v>1.167598004886703</v>
+        <v>1.880585830568271</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6578476495707379</v>
+        <v>0.8346742835098512</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002529932583726654</v>
+        <v>0.078006599055031</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1084272994429726</v>
+        <v>0.9652552607735853</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04685420235783268</v>
+        <v>0.4092775979706806</v>
       </c>
       <c r="L7" t="n">
-        <v>1.033753595367109</v>
+        <v>0.9289483482975388</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04759210920794951</v>
+        <v>0.4157233110112193</v>
       </c>
       <c r="N7" t="n">
-        <v>142.2428583047236</v>
+        <v>37.57344651809345</v>
       </c>
       <c r="O7" t="n">
-        <v>283.57803084794</v>
+        <v>74.53803010631928</v>
       </c>
     </row>
     <row r="8">
@@ -806,95 +806,95 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994411357657016</v>
+        <v>0.9478004380312931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.825363401330149</v>
+        <v>0.7187252224562384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8160854283843686</v>
+        <v>0.7667348773352123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993501469520034</v>
+        <v>0.9735214074730022</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002326287295172232</v>
+        <v>0.1675755850847123</v>
       </c>
       <c r="G8" t="n">
-        <v>1.167795739432891</v>
+        <v>1.880885732586395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6578517586895374</v>
+        <v>0.8343758182830078</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002724512584035725</v>
+        <v>0.07764281960276721</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1094914947124106</v>
+        <v>0.9639309241305698</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04823160058687905</v>
+        <v>0.4093599700565656</v>
       </c>
       <c r="L8" t="n">
-        <v>1.035767310995098</v>
+        <v>0.928919745404314</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04899120008221027</v>
+        <v>0.4158069803751152</v>
       </c>
       <c r="N8" t="n">
-        <v>142.1269634356431</v>
+        <v>37.57264155052901</v>
       </c>
       <c r="O8" t="n">
-        <v>283.4621359788595</v>
+        <v>74.53722513875482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_0</t>
+          <t>model_1_28_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993203085530774</v>
+        <v>0.9477781064443366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8234422856638999</v>
+        <v>0.7186791943081166</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8165440829152685</v>
+        <v>0.7668187219853948</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991228610272425</v>
+        <v>0.9736431280908263</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002829233793424188</v>
+        <v>0.1676472758922396</v>
       </c>
       <c r="G9" t="n">
-        <v>1.180642248739022</v>
+        <v>1.881193523024826</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6562111780268263</v>
+        <v>0.834075910830897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003677410110783749</v>
+        <v>0.07728589987744514</v>
       </c>
       <c r="J9" t="n">
-        <v>0.121945425139318</v>
+        <v>0.9626159029026184</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05319054233060787</v>
+        <v>0.4094475251997985</v>
       </c>
       <c r="L9" t="n">
-        <v>1.043500252603046</v>
+        <v>0.9288893364348413</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05402824020127972</v>
+        <v>0.4158959144243309</v>
       </c>
       <c r="N9" t="n">
-        <v>141.7354986967159</v>
+        <v>37.57178610996136</v>
       </c>
       <c r="O9" t="n">
-        <v>283.0706712399323</v>
+        <v>74.53636969818719</v>
       </c>
     </row>
     <row r="10">
@@ -904,95 +904,95 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993259949686203</v>
+        <v>0.9477544828697773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8232830879495161</v>
+        <v>0.7186320044142358</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8166113957828447</v>
+        <v>0.766902835670652</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9990936915553621</v>
+        <v>0.9737626720494498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00280556393691746</v>
+        <v>0.167723114351017</v>
       </c>
       <c r="G10" t="n">
-        <v>1.181706804588145</v>
+        <v>1.881509082062496</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6559704038025301</v>
+        <v>0.8337750410559237</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00379970328683755</v>
+        <v>0.07693536274052826</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1202299428822047</v>
+        <v>0.961310011184049</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05296757439148465</v>
+        <v>0.4095401254468444</v>
       </c>
       <c r="L10" t="n">
-        <v>1.043136322008301</v>
+        <v>0.9288571681631009</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05380176074000147</v>
+        <v>0.4159899730327015</v>
       </c>
       <c r="N10" t="n">
-        <v>141.7523014263707</v>
+        <v>37.57088157620076</v>
       </c>
       <c r="O10" t="n">
-        <v>283.0874739695871</v>
+        <v>74.53546516442658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_2</t>
+          <t>model_1_28_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993625906107656</v>
+        <v>0.9477295332497314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8229835999069631</v>
+        <v>0.7185835319263296</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8155063345553848</v>
+        <v>0.7669872993238763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992402030072683</v>
+        <v>0.9738798564855494</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002653233599500017</v>
+        <v>0.1678032097966327</v>
       </c>
       <c r="G11" t="n">
-        <v>1.183709482507713</v>
+        <v>1.88183321781232</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6599231437380229</v>
+        <v>0.833472919465824</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003185453194982764</v>
+        <v>0.07659174439967206</v>
       </c>
       <c r="J11" t="n">
-        <v>0.120294319652159</v>
+        <v>0.9600110800103414</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05150954862450279</v>
+        <v>0.4096379008302732</v>
       </c>
       <c r="L11" t="n">
-        <v>1.040794200911002</v>
+        <v>0.9288231942124002</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0523207725246807</v>
+        <v>0.4160892882806798</v>
       </c>
       <c r="N11" t="n">
-        <v>141.8639523132571</v>
+        <v>37.56992671285475</v>
       </c>
       <c r="O11" t="n">
-        <v>283.1991248564735</v>
+        <v>74.53451030108057</v>
       </c>
     </row>
   </sheetData>
